--- a/docs/StructureDefinition-VAInpatientIVMedicationRequestChange.xlsx
+++ b/docs/StructureDefinition-VAInpatientIVMedicationRequestChange.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="367">
   <si>
     <t>Path</t>
   </si>
@@ -479,10 +479,7 @@
     <t>Provenance.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -937,6 +934,76 @@
   </si>
   <si>
     <t>Pharmacy Patient @USER 55.04-.06</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who[x].id</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who[x].extension</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who[x].reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who[x].identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the other resource. This is used when there is no way to reference the other resource directly, either because the entity is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who[x].display</t>
+  </si>
+  <si>
+    <t>ENTRY CODE</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>This is the free text name from the user file of the person who performed the activity on this order.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @ENTRY CODE 55.04-.03</t>
   </si>
   <si>
     <t>Provenance.agent.onBehalfOf[x]</t>
@@ -1232,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3005,7 +3072,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3027,12 +3094,14 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3069,17 +3138,19 @@
         <v>44</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3097,7 +3168,7 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>44</v>
@@ -3111,7 +3182,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3137,10 +3208,10 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>76</v>
@@ -3193,7 +3264,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3225,7 +3296,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3248,16 +3319,16 @@
         <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3307,7 +3378,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>53</v>
@@ -3325,21 +3396,21 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3362,16 +3433,16 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3421,7 +3492,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3439,13 +3510,13 @@
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3453,14 +3524,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>53</v>
@@ -3481,13 +3552,13 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3537,7 +3608,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>53</v>
@@ -3552,24 +3623,24 @@
         <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3595,13 +3666,13 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3651,7 +3722,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3669,21 +3740,21 @@
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3706,13 +3777,13 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3763,7 +3834,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3781,21 +3852,21 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3821,10 +3892,10 @@
         <v>99</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3854,11 +3925,11 @@
         <v>103</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
       </c>
@@ -3875,7 +3946,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3893,21 +3964,21 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4019,7 +4090,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4133,7 +4204,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4159,16 +4230,16 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4217,25 +4288,25 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
@@ -4249,7 +4320,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4275,13 +4346,13 @@
         <v>66</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4331,25 +4402,25 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
@@ -4363,14 +4434,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E28" t="s" s="2">
         <v>42</v>
@@ -4391,14 +4462,14 @@
         <v>123</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4447,25 +4518,25 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
@@ -4479,7 +4550,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4505,14 +4576,14 @@
         <v>66</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4561,25 +4632,25 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
@@ -4593,7 +4664,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4616,19 +4687,19 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4677,25 +4748,25 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
@@ -4709,7 +4780,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4735,10 +4806,10 @@
         <v>99</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4768,60 +4839,60 @@
         <v>103</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AL31" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4933,7 +5004,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5047,7 +5118,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5073,23 +5144,23 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>44</v>
@@ -5131,25 +5202,25 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
@@ -5163,7 +5234,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5189,13 +5260,13 @@
         <v>66</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5245,25 +5316,25 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5277,14 +5348,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s" s="2">
         <v>42</v>
@@ -5305,14 +5376,14 @@
         <v>123</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5361,7 +5432,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5376,10 +5447,10 @@
         <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5393,7 +5464,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5419,14 +5490,14 @@
         <v>66</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5475,25 +5546,25 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
@@ -5507,7 +5578,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5530,19 +5601,19 @@
         <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5591,25 +5662,25 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
@@ -5623,7 +5694,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5646,19 +5717,19 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5707,7 +5778,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>53</v>
@@ -5719,27 +5790,27 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5851,7 +5922,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5965,11 +6036,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5991,10 +6062,10 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>76</v>
@@ -6047,7 +6118,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6079,7 +6150,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6102,16 +6173,16 @@
         <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6140,11 +6211,11 @@
         <v>103</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6161,7 +6232,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6179,21 +6250,21 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6216,13 +6287,13 @@
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6261,41 +6332,41 @@
         <v>44</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD44" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AE44" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6303,16 +6374,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B45" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="E45" t="s" s="2">
         <v>53</v>
@@ -6330,13 +6401,13 @@
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="L45" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6387,7 +6458,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>53</v>
@@ -6402,16 +6473,16 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6419,7 +6490,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6442,13 +6513,13 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>301</v>
+        <v>68</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6499,7 +6570,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>298</v>
+        <v>69</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6517,7 +6588,7 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>302</v>
+        <v>70</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
@@ -6531,18 +6602,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -6554,15 +6625,17 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>277</v>
+        <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6587,37 +6660,37 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -6629,10 +6702,10 @@
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>308</v>
+        <v>70</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
@@ -6643,7 +6716,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6654,7 +6727,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -6663,19 +6736,19 @@
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6725,39 +6798,39 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>314</v>
+        <v>146</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6777,18 +6850,20 @@
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -6837,7 +6912,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -6855,7 +6930,7 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
@@ -6867,41 +6942,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6951,13 +7028,13 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
@@ -6966,10 +7043,10 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>44</v>
@@ -6987,36 +7064,34 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>73</v>
+        <v>320</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>152</v>
+        <v>321</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7065,13 +7140,13 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
@@ -7083,7 +7158,7 @@
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>146</v>
+        <v>323</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
@@ -7097,7 +7172,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7105,7 +7180,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>53</v>
@@ -7117,16 +7192,16 @@
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7153,34 +7228,34 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>323</v>
+        <v>112</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AF52" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>53</v>
@@ -7195,21 +7270,21 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>328</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7217,10 +7292,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7229,19 +7304,19 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>330</v>
+        <v>259</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7291,39 +7366,39 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>163</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7334,7 +7409,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -7346,17 +7421,15 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>337</v>
+        <v>67</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7405,13 +7478,13 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>336</v>
+        <v>69</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
@@ -7423,7 +7496,7 @@
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
@@ -7437,11 +7510,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7460,15 +7533,17 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>343</v>
+        <v>74</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -7517,7 +7592,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7535,20 +7610,586 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="X57" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN55" t="s" s="2">
+      <c r="Y57" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN55">
+  <autoFilter ref="A1:AN60">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7558,7 +8199,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
